--- a/Excel/StartConfig/BanHao/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/BanHao/StartZoneConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\weijingHot\trunk_et_weijing\Excel\StartConfig\Localhost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\BanHao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F013A44D-0633-4F55-9647-3364AB50D99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4B548D-C810-432C-8481-98785DF8663A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="675" windowWidth="27810" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -59,6 +59,18 @@
   </si>
   <si>
     <t>WeiJing202(center)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicZone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理区</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -437,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:F7"/>
+  <dimension ref="C3:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -448,12 +460,12 @@
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="41.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="4" max="5" width="41.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -461,10 +473,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -472,10 +487,13 @@
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
@@ -483,34 +501,43 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C6" s="2">
         <v>201</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="4">
+        <v>201</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <v>202</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="4">
+        <v>202</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Excel/StartConfig/BanHao/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/BanHao/StartZoneConfig@s.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\BanHao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4B548D-C810-432C-8481-98785DF8663A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072D705A-B721-4F18-809C-6B2D1D5A1619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="675" windowWidth="27810" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{B22A87E2-D051-484D-A765-2ED3DA9AFEDF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+实际数据库区(合区后的真实区服)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Id</t>
   </si>
@@ -46,19 +82,35 @@
     <t>mongodb://localhost:27017/</t>
   </si>
   <si>
-    <t>#版号服</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>#中心服</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>WeiJing201(banhao)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeiJing202(center)</t>
+    <t>#机器人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJBeta1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJBeta2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJBeta202(center)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJBeta203(robot)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJBeta3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理区</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -70,7 +122,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>物理区</t>
+    <t>WJBeta4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -78,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +157,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -133,8 +200,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -448,96 +518,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C3:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="41.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="33.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="3">
+        <v>202</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>202</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="G10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="3">
+        <v>203</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5">
+        <v>203</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C6" s="2">
-        <v>201</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4">
-        <v>201</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="2">
-        <v>202</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="4">
-        <v>202</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -545,5 +672,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/StartConfig/BanHao/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/BanHao/StartZoneConfig@s.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Beta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\BanHao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072D705A-B721-4F18-809C-6B2D1D5A1619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4B548D-C810-432C-8481-98785DF8663A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="675" windowWidth="27810" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -19,44 +19,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Admin</author>
-  </authors>
-  <commentList>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{B22A87E2-D051-484D-A765-2ED3DA9AFEDF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-实际数据库区(合区后的真实区服)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -82,47 +46,31 @@
     <t>mongodb://localhost:27017/</t>
   </si>
   <si>
+    <t>#版号服</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>#中心服</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>#机器人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WJBeta1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WJBeta2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WJBeta202(center)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WJBeta203(robot)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WJBeta3</t>
+    <t>WeiJing201(banhao)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeiJing202(center)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicZone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>物理区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PhysicZone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WJBeta4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,21 +105,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -200,11 +133,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -518,153 +448,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C3:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="33.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="21" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="41.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="s">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
+        <v>201</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="4">
+        <v>201</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="2">
+        <v>202</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="5">
-        <v>3</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="4">
+        <v>202</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="3">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="5">
-        <v>3</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C9" s="3">
-        <v>4</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5">
-        <v>4</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="3">
-        <v>202</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5">
-        <v>202</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C11" s="3">
-        <v>203</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="5">
-        <v>203</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -672,6 +545,5 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/StartConfig/BanHao/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/BanHao/StartZoneConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\BanHao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4B548D-C810-432C-8481-98785DF8663A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AEE6F8-380B-4A76-B130-D59DD55B3B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="675" windowWidth="27810" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3615" yWindow="900" windowWidth="22365" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Id</t>
   </si>
@@ -54,14 +54,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>WeiJing201(banhao)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeiJing202(center)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>PhysicZone</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -71,6 +63,18 @@
   </si>
   <si>
     <t>物理区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJBanHao201</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJBanHao202(center)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJBanHao203(robot)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -449,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:G7"/>
+  <dimension ref="C3:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -473,7 +477,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>2</v>
@@ -487,7 +491,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>4</v>
@@ -501,7 +505,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>6</v>
@@ -518,7 +522,7 @@
         <v>201</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>8</v>
@@ -535,9 +539,26 @@
         <v>202</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="2">
+        <v>203</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4">
+        <v>203</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
